--- a/data/trans_bre/POLIPATOLOGIA_Lim_5-Clase-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_Lim_5-Clase-trans_bre.xlsx
@@ -638,20 +638,20 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.711658566244636</v>
+        <v>1.919675352601372</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.473087743999492</v>
+        <v>-0.8186282674957764</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.029201549164984</v>
+        <v>2.175466777687525</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="6" t="n">
-        <v>-0.3881941574044996</v>
+        <v>-0.2577283048592812</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3729630562831929</v>
+        <v>0.4416927913828053</v>
       </c>
     </row>
     <row r="6">
@@ -662,20 +662,20 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.922156936891819</v>
+        <v>6.743556327329592</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.75554447273367</v>
+        <v>4.981523194669498</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.48525667670656</v>
+        <v>7.587884253819762</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
-        <v>2.735130936292888</v>
+        <v>2.697367846706008</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.575680309920098</v>
+        <v>2.719590334830605</v>
       </c>
     </row>
     <row r="7">
@@ -696,7 +696,7 @@
         <v>1.689044566303874</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6.915712891100251</v>
+        <v>6.915712891100247</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.215328256571747</v>
@@ -716,22 +716,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02091007694028653</v>
+        <v>-0.1292722364105919</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.5366502987024934</v>
+        <v>-0.3502930476223378</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.842232344983782</v>
+        <v>4.033307220588105</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1114666649606398</v>
+        <v>-0.1774210103163061</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.483258648520334</v>
+        <v>-0.3034505214498727</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6384523878834119</v>
+        <v>0.6720817184167346</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.601444661953817</v>
+        <v>5.525093505504582</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.102443758353546</v>
+        <v>4.195502634524804</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.03676816684505</v>
+        <v>10.27574018382515</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.983907743563963</v>
+        <v>5.864362415915593</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>6.144097520776106</v>
+        <v>6.914362274198392</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.139334105481255</v>
+        <v>3.101061454628599</v>
       </c>
     </row>
     <row r="10">
@@ -778,7 +778,7 @@
         <v>12.03494791447311</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9.096798118685122</v>
+        <v>9.096798118685124</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.3711568684746277</v>
@@ -798,22 +798,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.60294460119723</v>
+        <v>-1.479361932554861</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.225897721397855</v>
+        <v>6.640026303213453</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.771492416821245</v>
+        <v>4.528803682704709</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.2813665487484766</v>
+        <v>-0.2869566632938046</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1.699904671767762</v>
+        <v>1.872705343163019</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3453350783044636</v>
+        <v>0.3694462862449278</v>
       </c>
     </row>
     <row r="12">
@@ -824,22 +824,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.624263914753517</v>
+        <v>5.553345789059097</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>19.26415297637207</v>
+        <v>18.48119239630424</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.76777303590412</v>
+        <v>14.08317362700951</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.666135672144063</v>
+        <v>1.633996885572346</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>11.95765531587883</v>
+        <v>10.55631939901422</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.831773873709987</v>
+        <v>1.935468790269371</v>
       </c>
     </row>
     <row r="13">
@@ -860,7 +860,7 @@
         <v>2.715650069155398</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1.51751487183663</v>
+        <v>1.517514871836631</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.07429836154933855</v>
@@ -869,7 +869,7 @@
         <v>0.7904648889996359</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1619057691291156</v>
+        <v>0.1619057691291157</v>
       </c>
     </row>
     <row r="14">
@@ -880,22 +880,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.800373705872345</v>
+        <v>-1.694251997051106</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7091300068886289</v>
+        <v>0.641159203275406</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.9290343026156735</v>
+        <v>-0.8420508661699756</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2828486710279292</v>
+        <v>-0.2704346876423205</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1695077716170474</v>
+        <v>0.1399559649644125</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.0837987162744999</v>
+        <v>-0.07552319153005248</v>
       </c>
     </row>
     <row r="15">
@@ -906,22 +906,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.61983993787395</v>
+        <v>2.752022814438592</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.700159360952638</v>
+        <v>5.174182279694812</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.619135756836694</v>
+        <v>3.59400649161703</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5681707359248616</v>
+        <v>0.6093004210338222</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.621618226845825</v>
+        <v>1.828749098082526</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4710393019343926</v>
+        <v>0.4324523451070739</v>
       </c>
     </row>
     <row r="16">
@@ -951,7 +951,7 @@
         <v>1.18924396384923</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>1.825199022410199</v>
+        <v>1.8251990224102</v>
       </c>
     </row>
     <row r="17">
@@ -962,22 +962,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.147787811194391</v>
+        <v>6.263945113937404</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.296017566343094</v>
+        <v>3.339618176927884</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11.91378988804093</v>
+        <v>11.8458493450255</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>1.188050372657834</v>
+        <v>1.147433419189223</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4627692289318941</v>
+        <v>0.4650512319019645</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.156859815716367</v>
+        <v>1.214779217041756</v>
       </c>
     </row>
     <row r="18">
@@ -988,22 +988,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.18706261026944</v>
+        <v>12.30711537584163</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.589593584397372</v>
+        <v>9.640444058531829</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.8781791684848</v>
+        <v>17.98709359468928</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5.271620374758347</v>
+        <v>5.148906982124037</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.137918729051502</v>
+        <v>2.269546159509052</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.711406437985237</v>
+        <v>2.79397995177866</v>
       </c>
     </row>
     <row r="19">
@@ -1044,20 +1044,20 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>10.15676658173409</v>
+        <v>9.84863252111837</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>9.003009769222116</v>
+        <v>9.059755515535763</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12.1760045947767</v>
+        <v>12.90498949891017</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>4.500560440290748</v>
+        <v>3.95946237924863</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>3.058358001831708</v>
+        <v>3.885497024360976</v>
       </c>
     </row>
     <row r="21">
@@ -1068,18 +1068,18 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>14.67241446198159</v>
+        <v>14.74731716669316</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>13.38266426203788</v>
+        <v>13.35608712231329</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17.51505672459036</v>
+        <v>17.67030579605987</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>25.52187299396385</v>
+        <v>26.01711440596665</v>
       </c>
     </row>
     <row r="22">
@@ -1120,22 +1120,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.448555311663686</v>
+        <v>4.506258614701629</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.600579394496821</v>
+        <v>4.703374223923746</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.964671829612948</v>
+        <v>6.838756607294096</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1.077262985512416</v>
+        <v>1.08759847245175</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1.279912336640014</v>
+        <v>1.327818842314748</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9170085755289374</v>
+        <v>0.8895737133314608</v>
       </c>
     </row>
     <row r="24">
@@ -1146,22 +1146,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.921049052863898</v>
+        <v>6.888436379303327</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.028309650458761</v>
+        <v>6.982188619712145</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.401777450299555</v>
+        <v>9.379576923125814</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>2.222789869078015</v>
+        <v>2.20256320189737</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.55269075823395</v>
+        <v>2.63374542920729</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.492232414473906</v>
+        <v>1.47932325348154</v>
       </c>
     </row>
     <row r="25">
